--- a/UAT-Testcase-Training.xlsx
+++ b/UAT-Testcase-Training.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CO-OP\CubeSoftTech_WorkingSpace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A224D6-6B73-4D1D-B184-291A9A70B487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE98A09-88D6-4E73-A20D-7E89D44BCC79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{CCCF8952-E977-4E69-B266-ED8C89073CA7}"/>
   </bookViews>
@@ -127,33 +127,6 @@
 password : 1234</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>1. พนักงานเข้าสู่ระบบสำเร็จ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-   1.1 ระบบแสดงหน้าจอสำหรับหน้าเข้าสู่ระบบ (CHECK001)
-ภายในหน้าจอแสดงข้อความ "Login to your account"
-และแท็บบาร์แสดงข้อความ "Cube SoftTech : Login"
-   1.2 ระบบแสดงหน้าแรกของเว็บไซต์ (CHECK002)
-ภายในหน้าจอ มุมขวาแสดงข้อความชื่อผู้ใช้ "test_it_roles"
-และแท็บบาร์แสดงข้อความ "check in"</t>
-    </r>
-  </si>
-  <si>
     <t>Function ID : UAT-003</t>
   </si>
   <si>
@@ -173,20 +146,6 @@
   </si>
   <si>
     <t>TC-TRAIN-002</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">พนักงานเพิ่มบันทึกการอบรมสำเร็จ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="TH Sarabun New"/>
-        <family val="2"/>
-      </rPr>
-      <t>(Positive Case)</t>
-    </r>
   </si>
   <si>
     <t>เพิ่มบันทึกการอบรม</t>
@@ -2147,6 +2106,47 @@
    1.6 ระบบแสดงหน้าจอสำหรับการยืนยันการลบ
    1.7  ระบบแสดงหน้าจอสำหรับข้อมูลบันทึกการอบรม (TRAIN003) และไม่มีข้อมูลของบันทึกการอบรม
 Title : TC-TRAIN-020</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>1. พนักงานเข้าสู่ระบบสำเร็จ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   1.1 ระบบแสดงหน้าจอสำหรับหน้าเข้าสู่ระบบ (TRAIN001)
+ภายในหน้าจอแสดงข้อความ "Login to your account"
+และแท็บบาร์แสดงข้อความ "Cube SoftTech : Login"
+   1.2 ระบบแสดงหน้าแรกของเว็บไซต์ (TRAIN002)
+ภายในหน้าจอ มุมขวาแสดงข้อความชื่อผู้ใช้ "test_it_roles"
+และแท็บบาร์แสดงข้อความ "check in"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">User เพิ่มบันทึกการอบรม </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="TH Sarabun New"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Positive Case)</t>
     </r>
   </si>
 </sst>
@@ -2796,9 +2796,9 @@
   </sheetPr>
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.6"/>
@@ -2819,27 +2819,27 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A1" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D1" s="17"/>
       <c r="E1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>22</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>23</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J1" s="11"/>
       <c r="K1" s="10"/>
@@ -2896,7 +2896,7 @@
     </row>
     <row r="4" spans="1:12" s="4" customFormat="1" ht="147" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>13</v>
@@ -2914,10 +2914,10 @@
         <v>14</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>19</v>
+        <v>169</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>19</v>
+        <v>169</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>12</v>
@@ -2927,7 +2927,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.6">
       <c r="A5" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -2943,28 +2943,28 @@
     </row>
     <row r="6" spans="1:12" ht="168" x14ac:dyDescent="0.6">
       <c r="A6" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>27</v>
+        <v>170</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E6" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>12</v>
@@ -2975,28 +2975,28 @@
     </row>
     <row r="7" spans="1:12" ht="168" x14ac:dyDescent="0.6">
       <c r="A7" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E7" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>12</v>
@@ -3007,28 +3007,28 @@
     </row>
     <row r="8" spans="1:12" ht="168" x14ac:dyDescent="0.6">
       <c r="A8" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E8" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>128</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>130</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>12</v>
@@ -3038,28 +3038,28 @@
     </row>
     <row r="9" spans="1:12" ht="151.80000000000001" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A9" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>12</v>
@@ -3069,28 +3069,28 @@
     </row>
     <row r="10" spans="1:12" ht="151.80000000000001" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A10" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>12</v>
@@ -3100,28 +3100,28 @@
     </row>
     <row r="11" spans="1:12" ht="151.80000000000001" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A11" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>12</v>
@@ -3131,28 +3131,28 @@
     </row>
     <row r="12" spans="1:12" ht="147" x14ac:dyDescent="0.6">
       <c r="A12" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>12</v>
@@ -3162,28 +3162,28 @@
     </row>
     <row r="13" spans="1:12" ht="147" x14ac:dyDescent="0.6">
       <c r="A13" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E13" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H13" s="12" t="s">
         <v>134</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>136</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>12</v>
@@ -3193,28 +3193,28 @@
     </row>
     <row r="14" spans="1:12" ht="147" x14ac:dyDescent="0.6">
       <c r="A14" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E14" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="H14" s="12" t="s">
         <v>137</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>139</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>12</v>
@@ -3224,28 +3224,28 @@
     </row>
     <row r="15" spans="1:12" ht="168" x14ac:dyDescent="0.6">
       <c r="A15" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>12</v>
@@ -3255,28 +3255,28 @@
     </row>
     <row r="16" spans="1:12" ht="189" x14ac:dyDescent="0.6">
       <c r="A16" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E16" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="H16" s="12" t="s">
         <v>141</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>143</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>12</v>
@@ -3286,7 +3286,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A17" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -3301,28 +3301,28 @@
     </row>
     <row r="18" spans="1:11" ht="336" x14ac:dyDescent="0.6">
       <c r="A18" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E18" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H18" s="12" t="s">
         <v>144</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>146</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>12</v>
@@ -3332,28 +3332,28 @@
     </row>
     <row r="19" spans="1:11" ht="294" x14ac:dyDescent="0.6">
       <c r="A19" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E19" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="H19" s="12" t="s">
         <v>147</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>149</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>12</v>
@@ -3363,28 +3363,28 @@
     </row>
     <row r="20" spans="1:11" ht="315" x14ac:dyDescent="0.6">
       <c r="A20" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E20" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="H20" s="12" t="s">
         <v>150</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>152</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>12</v>
@@ -3394,28 +3394,28 @@
     </row>
     <row r="21" spans="1:11" ht="294" x14ac:dyDescent="0.6">
       <c r="A21" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>12</v>
@@ -3425,28 +3425,28 @@
     </row>
     <row r="22" spans="1:11" ht="336" x14ac:dyDescent="0.6">
       <c r="A22" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E22" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="H22" s="12" t="s">
         <v>155</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>157</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>12</v>
@@ -3456,28 +3456,28 @@
     </row>
     <row r="23" spans="1:11" ht="336" x14ac:dyDescent="0.6">
       <c r="A23" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E23" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="H23" s="12" t="s">
         <v>158</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>160</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>12</v>
@@ -3487,28 +3487,28 @@
     </row>
     <row r="24" spans="1:11" ht="294" x14ac:dyDescent="0.6">
       <c r="A24" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E24" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="H24" s="12" t="s">
         <v>161</v>
-      </c>
-      <c r="F24" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>163</v>
       </c>
       <c r="I24" s="9" t="s">
         <v>12</v>
@@ -3518,7 +3518,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A25" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -3533,28 +3533,28 @@
     </row>
     <row r="26" spans="1:11" ht="252" x14ac:dyDescent="0.6">
       <c r="A26" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E26" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="H26" s="12" t="s">
         <v>165</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>167</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>12</v>
@@ -3564,28 +3564,28 @@
     </row>
     <row r="27" spans="1:11" ht="252" x14ac:dyDescent="0.6">
       <c r="A27" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F27" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="H27" s="12" t="s">
         <v>168</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>170</v>
       </c>
       <c r="I27" s="9" t="s">
         <v>12</v>
@@ -3595,7 +3595,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.6">
       <c r="A28" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -3610,28 +3610,28 @@
     </row>
     <row r="29" spans="1:11" ht="63" x14ac:dyDescent="0.6">
       <c r="A29" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I29" s="9" t="s">
         <v>12</v>
@@ -3641,28 +3641,28 @@
     </row>
     <row r="30" spans="1:11" ht="63" x14ac:dyDescent="0.6">
       <c r="A30" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F30" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G30" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="H30" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I30" s="9" t="s">
         <v>12</v>
@@ -3672,28 +3672,28 @@
     </row>
     <row r="31" spans="1:11" ht="63" x14ac:dyDescent="0.6">
       <c r="A31" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="E31" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I31" s="9" t="s">
         <v>12</v>
@@ -3703,26 +3703,26 @@
     </row>
     <row r="32" spans="1:11" ht="42" x14ac:dyDescent="0.6">
       <c r="A32" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E32" s="16"/>
       <c r="F32" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I32" s="9" t="s">
         <v>12</v>
